--- a/Medium Instances/Medium2.xlsx
+++ b/Medium Instances/Medium2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Medium Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E6EB47-89D6-164B-B79B-3AF3BF077D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932B562-9DFD-45F4-B3C8-E259CDFC6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium2" sheetId="11" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1111,21 +1109,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,54 +1167,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F16" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F16" ca="1" si="1">C2*111.021</f>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K16" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K16" ca="1" si="3">H2*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1241,54 +1241,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.390343000000001</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1315,54 +1317,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1386,54 +1390,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C19" si="4">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C5:C19" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D16" si="5">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D5:D16" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H19" si="6">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H5:H19" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I16" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I5:I16" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" ref="M5">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>88</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1457,54 +1463,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="5"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
-        <f t="shared" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" ref="M6">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>56</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1528,48 +1536,48 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <f t="shared" ref="B7:B19" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <f t="shared" ref="G7:G19" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.290962</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1577,7 +1585,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1589,56 +1597,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Telavåg</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9820219999999997</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.261564</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>553.10906446199999</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G8" s="3" t="str">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I8" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I8" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1650,48 +1658,48 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knappskog</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0559289999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.382877999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>561.31429350899998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.7674984380001</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G9" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I9" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I9" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.290962</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1699,7 +1707,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1711,48 +1719,48 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G10" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I10" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1760,7 +1768,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1772,48 +1780,48 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G11" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I11" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I11" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1821,7 +1829,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1834,56 +1842,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G12" s="3" t="str">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I12" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1898,48 +1906,48 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G13" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I13" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I13" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1947,52 +1955,52 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G14" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I14" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -2002,264 +2010,264 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
-      </c>
-      <c r="G15" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I15" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Straume</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>568.57551099299997</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G16" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I16" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I16" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D19" ca="1" si="12">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.388651000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:E19" ca="1" si="13">C17*111.021</f>
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:F19" ca="1" si="14">D17*111.021</f>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I17:I19" ca="1" si="15">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J17:J19" ca="1" si="16">H17*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <f t="shared" ref="K17:K19" ca="1" si="17">I17*111.021</f>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="12"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ca="1" si="13"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Spjeld</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="12"/>
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="13"/>
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2275,7 +2283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2300,7 +2308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2325,7 +2333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2356,7 +2364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2387,7 +2395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2419,7 +2427,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2435,19 +2443,19 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="16">S25+7</f>
+        <f t="shared" ref="T25:T47" si="18">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="17">S25+4</f>
+        <f t="shared" ref="U25:U47" si="19">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="18">S25+8</f>
+        <f t="shared" ref="V25:V47" si="20">S25+8</f>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2463,19 +2471,19 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2491,19 +2499,19 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2519,19 +2527,19 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2547,19 +2555,19 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2575,19 +2583,19 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2603,19 +2611,19 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2631,19 +2639,19 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2659,19 +2667,19 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2685,19 +2693,19 @@
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2713,19 +2721,19 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2741,19 +2749,19 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2769,19 +2777,19 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2797,19 +2805,19 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2825,19 +2833,19 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2851,19 +2859,19 @@
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2879,19 +2887,19 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2907,19 +2915,19 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2935,19 +2943,19 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2963,19 +2971,19 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -2983,19 +2991,19 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -3003,19 +3011,19 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -3023,19 +3031,19 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -3052,18 +3060,18 @@
       <selection activeCell="H27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -3253,7 +3261,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3395,7 +3403,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3466,56 +3474,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B5:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C5:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G5:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H5:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ref="I5:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3527,56 +3535,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3588,56 +3596,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3649,56 +3657,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3710,56 +3718,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3772,56 +3780,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3836,59 +3844,59 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3914,55 +3922,55 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3989,62 +3997,62 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -4054,7 +4062,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -4064,7 +4072,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -4087,7 +4095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -4112,7 +4120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -4137,7 +4145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -4168,7 +4176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -4199,7 +4207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -4231,7 +4239,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -4259,7 +4267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -4287,7 +4295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -4315,7 +4323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4343,7 +4351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -4371,7 +4379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -4399,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -4427,7 +4435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -4455,7 +4463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -4483,7 +4491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -4509,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -4537,7 +4545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -4565,7 +4573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -4593,7 +4601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -4621,7 +4629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -4649,7 +4657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -4675,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -4703,7 +4711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -4731,7 +4739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -4759,7 +4767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -4787,7 +4795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -4827,7 +4835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -4864,18 +4872,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5065,7 +5073,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -5136,56 +5144,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B4:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C4:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G4:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I4:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -5206,56 +5214,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5276,56 +5284,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5337,56 +5345,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5398,56 +5406,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5459,56 +5467,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5520,56 +5528,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5582,29 +5590,29 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5631,7 +5639,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5646,60 +5654,60 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5708,7 +5716,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -5718,7 +5726,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -5728,7 +5736,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -5738,7 +5746,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -5761,7 +5769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -5786,7 +5794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -5811,7 +5819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -5842,7 +5850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5873,7 +5881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -5905,7 +5913,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -5933,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -5961,7 +5969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -5989,7 +5997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -6017,7 +6025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -6045,7 +6053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -6073,7 +6081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -6101,7 +6109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -6129,7 +6137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -6157,7 +6165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -6183,7 +6191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -6211,7 +6219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -6239,7 +6247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -6267,7 +6275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -6295,7 +6303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -6323,7 +6331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -6349,7 +6357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -6377,7 +6385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -6405,7 +6413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -6433,7 +6441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -6461,7 +6469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -6538,18 +6546,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6665,7 +6673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -6739,56 +6747,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6809,56 +6817,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6879,56 +6887,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -6949,56 +6957,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7010,7 +7018,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -7036,30 +7044,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7071,56 +7079,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7132,56 +7140,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7193,29 +7201,29 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7242,7 +7250,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7255,7 +7263,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7276,8 +7284,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7286,7 +7294,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -7296,7 +7304,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -7306,7 +7314,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -7316,7 +7324,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -7339,7 +7347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -7364,7 +7372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -7389,7 +7397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -7420,7 +7428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -7451,7 +7459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -7483,7 +7491,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -7511,7 +7519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -7539,7 +7547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -7567,7 +7575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -7595,7 +7603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -7623,7 +7631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -7651,7 +7659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -7679,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -7707,7 +7715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -7735,7 +7743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -7761,7 +7769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -7789,7 +7797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -7817,7 +7825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -7845,7 +7853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -7873,7 +7881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -7901,7 +7909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -7927,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7955,7 +7963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -7983,7 +7991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -8011,7 +8019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -8039,7 +8047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -8079,7 +8087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -8099,7 +8107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -8119,19 +8127,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -8247,7 +8255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -8321,29 +8329,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8370,7 +8378,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -8391,56 +8399,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -8461,56 +8469,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -8531,7 +8539,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -8549,7 +8557,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -8567,7 +8575,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -8585,7 +8593,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8603,7 +8611,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -8622,7 +8630,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -8643,12 +8651,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -8657,7 +8665,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -8667,7 +8675,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -8677,7 +8685,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -8687,7 +8695,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -8710,7 +8718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -8735,7 +8743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -8760,7 +8768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -8791,7 +8799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8822,7 +8830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -8854,7 +8862,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8882,7 +8890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -8910,7 +8918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -8938,7 +8946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -8966,7 +8974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -8994,7 +9002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -9022,7 +9030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -9050,7 +9058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -9078,7 +9086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -9106,7 +9114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -9132,7 +9140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -9160,7 +9168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -9188,7 +9196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -9216,7 +9224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -9244,7 +9252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -9272,7 +9280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -9298,7 +9306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9326,7 +9334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -9354,7 +9362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -9382,7 +9390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -9410,7 +9418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -9430,7 +9438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -9450,7 +9458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -9470,7 +9478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -9487,15 +9495,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -9515,82 +9523,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -9598,7 +9606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -9609,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -9620,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -9631,7 +9639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -9642,7 +9650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -9653,7 +9661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -9664,7 +9672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -9675,7 +9683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -9697,7 +9705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -9719,7 +9727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -9730,7 +9738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -9752,7 +9760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -9777,9 +9785,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -9794,7 +9802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -9811,7 +9819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -9828,7 +9836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -9845,7 +9853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -9862,7 +9870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -9879,7 +9887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -9899,7 +9907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -9919,7 +9927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -9939,7 +9947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -9959,7 +9967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -9979,7 +9987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -9999,7 +10007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -10019,7 +10027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -10039,7 +10047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -10059,7 +10067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -10077,7 +10085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -10097,7 +10105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -10117,7 +10125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -10137,7 +10145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -10157,7 +10165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -10177,7 +10185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -10195,7 +10203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -10215,7 +10223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -10235,7 +10243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -10255,7 +10263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -10275,7 +10283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -10295,7 +10303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -10349,9 +10357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -10371,7 +10379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -10391,7 +10399,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -10411,7 +10419,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -10431,7 +10439,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -10451,7 +10459,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -10462,7 +10470,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -10473,7 +10481,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -10495,7 +10503,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>

--- a/Medium Instances/Medium2.xlsx
+++ b/Medium Instances/Medium2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932B562-9DFD-45F4-B3C8-E259CDFC6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A77EBC-C187-4AD0-A7E6-AE3B3F3F27CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium2" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId7"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1193,30 +1193,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K16" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1247,50 +1247,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1323,50 +1323,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1396,23 +1396,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C19" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D16" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1469,50 +1469,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1542,23 +1542,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1603,23 +1603,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1664,23 +1664,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1725,50 +1725,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1786,50 +1786,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1848,23 +1848,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1912,23 +1912,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,50 +1964,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2016,50 +2016,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2068,50 +2068,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2120,50 +2120,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="12">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="13">C17*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="14">D17*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="15">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="16">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="17">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2192,30 +2192,30 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2224,50 +2224,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -3480,50 +3480,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3541,50 +3541,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3602,50 +3602,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3724,50 +3724,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3786,23 +3786,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3850,50 +3850,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,50 +3902,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3954,50 +3954,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4006,23 +4006,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -5150,23 +5150,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -5220,50 +5220,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5290,50 +5290,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5351,50 +5351,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5412,43 +5412,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -5473,50 +5473,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5534,23 +5534,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5596,50 +5596,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5680,30 +5680,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6753,50 +6753,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6823,50 +6823,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6893,50 +6893,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -6963,23 +6963,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7024,50 +7024,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7085,23 +7085,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7146,23 +7146,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7207,23 +7207,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8335,50 +8335,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -8405,23 +8405,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -8475,50 +8475,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium2.xlsx
+++ b/Medium Instances/Medium2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A77EBC-C187-4AD0-A7E6-AE3B3F3F27CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7088E630-ADE3-4A5F-80A3-6EE86502056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="870" windowWidth="12060" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium2" sheetId="11" r:id="rId1"/>
@@ -1173,50 +1173,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F16" ca="1" si="1">C2*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K16" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1247,23 +1247,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1323,23 +1323,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1469,50 +1469,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1542,50 +1542,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1603,50 +1603,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1664,50 +1664,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1725,50 +1725,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1786,50 +1786,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1868,30 +1868,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1912,50 +1912,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,50 +1964,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2036,30 +2036,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2068,23 +2068,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2120,50 +2120,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="12">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="13">C17*111.021</f>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="14">D17*111.021</f>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="15">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="16">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="17">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2172,50 +2172,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2224,23 +2224,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -3480,23 +3480,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3541,50 +3541,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3602,50 +3602,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3663,50 +3663,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3724,50 +3724,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3786,50 +3786,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3850,50 +3850,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,50 +3902,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3954,50 +3954,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4026,30 +4026,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -5150,50 +5150,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -5220,50 +5220,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5290,23 +5290,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5351,50 +5351,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5412,50 +5412,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5473,50 +5473,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5534,50 +5534,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5596,50 +5596,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5660,23 +5660,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6753,50 +6753,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6823,50 +6823,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6893,50 +6893,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -6983,30 +6983,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7024,50 +7024,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7085,23 +7085,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7146,23 +7146,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7227,30 +7227,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8335,23 +8335,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -8405,43 +8405,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>

--- a/Medium Instances/Medium2.xlsx
+++ b/Medium Instances/Medium2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F354AC-F874-4BF5-A9A4-CF030D008232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D96582-5717-4565-8DC2-D22F56170CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium2" sheetId="11" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1180,50 +1180,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Kårtveit</v>
+        <v>Solsvik</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.9934529999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F16" ca="1" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K16" ca="1" si="2">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1254,50 +1254,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B19" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Blomøy</v>
+        <v>Spjeld</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C19" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.8927480000000001</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D19" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.538108000000001</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1330,23 +1330,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1403,43 +1403,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Landro</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>551.464510389</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H19" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I16" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -1476,50 +1476,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1549,50 +1549,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1610,50 +1610,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Kleppe</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1671,23 +1671,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Arefjord</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1732,23 +1732,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Vorland</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1793,50 +1793,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Kleppe</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1855,50 +1855,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1919,50 +1919,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Arefjord</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1980,50 +1980,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2041,50 +2041,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Kleppe</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2102,50 +2102,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Vågo</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.388821</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2163,23 +2163,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="10">C17*111.021</f>
-        <v>551.37569358899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="11">D17*111.021</f>
-        <v>6709.1102730419998</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2224,50 +2224,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>531.88684520700008</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>6734.6472124410002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2285,50 +2285,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>565.89468690599995</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>6690.1187987399999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -3597,50 +3597,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3658,50 +3658,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3719,23 +3719,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3841,50 +3841,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3903,50 +3903,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3967,50 +3967,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4019,50 +4019,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4071,50 +4071,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5267,50 +5267,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -5337,23 +5337,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5407,50 +5407,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5468,50 +5468,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5529,50 +5529,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5590,50 +5590,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5651,50 +5651,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5713,50 +5713,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5777,50 +5777,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6870,23 +6870,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6960,30 +6960,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7010,23 +7010,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7080,50 +7080,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7141,50 +7141,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7202,50 +7202,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7324,50 +7324,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8472,30 +8472,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -8522,50 +8522,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -8592,23 +8592,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
